--- a/reports/vivado/CodeHoistingSolution/power/CodeHoistingIOPowerReport.xlsx
+++ b/reports/vivado/CodeHoistingSolution/power/CodeHoistingIOPowerReport.xlsx
@@ -359,7 +359,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.006650328170508146</v>
+        <v>0.00627138139680028</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>27</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>0.006331987679004669</v>
+        <v>0.005951995030045509</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>29</v>
@@ -487,7 +487,7 @@
         <v>100.0</v>
       </c>
       <c r="P3" t="n" s="2">
-        <v>10.414664268493652</v>
+        <v>9.789665222167969</v>
       </c>
       <c r="Q3" t="s" s="4">
         <v>37</v>
@@ -508,13 +508,13 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n" s="2">
-        <v>9.319999953731894E-4</v>
+        <v>8.759999764151871E-4</v>
       </c>
       <c r="X3" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="Y3" t="n" s="2">
-        <v>0.005398999899625778</v>
+        <v>0.0050760000012815</v>
       </c>
       <c r="Z3" t="s" s="4">
         <v>34</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="n" s="8">
-        <v>0.006331987679004669</v>
+        <v>0.005951995030045509</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>29</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="9" outlineLevel="1">
       <c r="A9" t="n" s="5">
-        <v>9.415382919542026E-6</v>
+        <v>1.0461538295203354E-5</v>
       </c>
       <c r="B9" t="s" s="4">
         <v>45</v>
@@ -985,7 +985,7 @@
         <v>100.0</v>
       </c>
       <c r="P9" t="n" s="2">
-        <v>0.919471025466919</v>
+        <v>1.0216350555419922</v>
       </c>
       <c r="Q9" t="s" s="4">
         <v>37</v>
@@ -1003,7 +1003,7 @@
         <v>0.0</v>
       </c>
       <c r="V9" t="n" s="2">
-        <v>0.0</v>
+        <v>9.999999974752427E-7</v>
       </c>
       <c r="W9" t="n" s="2">
         <v>0.0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="10" outlineLevel="2">
       <c r="A10" t="n" s="8">
-        <v>9.415382919542026E-6</v>
+        <v>1.0461538295203354E-5</v>
       </c>
       <c r="B10" t="s" s="4">
         <v>45</v>
